--- a/biology/Médecine/Bernard_Jacotot/Bernard_Jacotot.xlsx
+++ b/biology/Médecine/Bernard_Jacotot/Bernard_Jacotot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Victor Jacotot, né le 29 juillet 1935 à Saïgon en Indochine, est un médecin et universitaire français. Sa carrière s’est déroulée à Paris et au Centre Hospitalier Universitaire de Créteil (Val de Marne). Il a consacré l’essentiel de son activité à l’étude de l’athérosclérose, des dyslipidémies et des facteurs de risque des maladies cardio-vasculaires, domaines dans lesquels il s’était fait une réputation internationale.[réf. nécessaire]
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Jacotot est le fils de Henri Jacotot, docteur vétérinaire et biologiste, directeur de l’Institut Pasteur de Nha Trang (Viêt Nam) et chef de service à l’Institut Pasteur de Paris, et de Thérèse Martin. Il passe son enfance à Nha Trang et à Dalat, fait ses études secondaires à Dijon et à Paris (lycée Henri IV puis lycée Condorcet), et poursuit ses études à la Faculté de Médecine de Paris. Après l’internat, il devient en 1969 chef de Clinique-Assistant dans le service de Médecine interne du Professeur Jean-Louis Beaumont à l’hôpital Henri Mondor de Créteil, puis, en 1971, Maître de Conférence-Agrégé et Médecin des Hôpitaux. Il est nommé professeur de Médecine Interne en 1980[1], puis professeur de Nutrition en 1991[2]. À partir de 1988 et jusqu’à sa retraite en 2002, il est chef du service de Médecine Interne, Nutrition et Métabolisme des Lipides à l’hôpital Henri Mondor[3],[4]..
-Parallèlement à ses activités de médecin clinicien et d’enseignant, il a mené, depuis le début de l’internat, des travaux de recherche au sein de l’Unité 32 de l’INSERM. De 1985 à 1992, il a été Directeur cette Unité de recherche consacrée à l’athérosclérose et aux dyslipidémies[5].
-Bernard Jacotot a par ailleurs exercé diverses fonctions : Vice-président délégué à la Recherche de l'Université Paris XII (1980)[6] ; vice-président du Conseil départemental des médecins du Val de Marne (1982-1986) ; membre du Centre régional des œuvres universitaires et scolaires (CROUS) de Créteil (1977-1981)[7] ; cofondateur (avec Philippe Douste-Blazy et Jean-Charles Fruchart) et secrétaire général du Comité français de coordination des recherches sur l’athérosclérose et le cholestérol (ARCOL) (1988-2000) ; secrétaire général puis vice-président de la Société française d’athérosclérose (1990-1997) ; membre de l’organe scientifique supérieur du Conseil oléicole international (1995-2000) ; coprésident (avec Jean-Charles Fruchart) du XIth International Symposium on Atherosclerosis (Paris 1997). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Jacotot est le fils de Henri Jacotot, docteur vétérinaire et biologiste, directeur de l’Institut Pasteur de Nha Trang (Viêt Nam) et chef de service à l’Institut Pasteur de Paris, et de Thérèse Martin. Il passe son enfance à Nha Trang et à Dalat, fait ses études secondaires à Dijon et à Paris (lycée Henri IV puis lycée Condorcet), et poursuit ses études à la Faculté de Médecine de Paris. Après l’internat, il devient en 1969 chef de Clinique-Assistant dans le service de Médecine interne du Professeur Jean-Louis Beaumont à l’hôpital Henri Mondor de Créteil, puis, en 1971, Maître de Conférence-Agrégé et Médecin des Hôpitaux. Il est nommé professeur de Médecine Interne en 1980, puis professeur de Nutrition en 1991. À partir de 1988 et jusqu’à sa retraite en 2002, il est chef du service de Médecine Interne, Nutrition et Métabolisme des Lipides à l’hôpital Henri Mondor,..
+Parallèlement à ses activités de médecin clinicien et d’enseignant, il a mené, depuis le début de l’internat, des travaux de recherche au sein de l’Unité 32 de l’INSERM. De 1985 à 1992, il a été Directeur cette Unité de recherche consacrée à l’athérosclérose et aux dyslipidémies.
+Bernard Jacotot a par ailleurs exercé diverses fonctions : Vice-président délégué à la Recherche de l'Université Paris XII (1980) ; vice-président du Conseil départemental des médecins du Val de Marne (1982-1986) ; membre du Centre régional des œuvres universitaires et scolaires (CROUS) de Créteil (1977-1981) ; cofondateur (avec Philippe Douste-Blazy et Jean-Charles Fruchart) et secrétaire général du Comité français de coordination des recherches sur l’athérosclérose et le cholestérol (ARCOL) (1988-2000) ; secrétaire général puis vice-président de la Société française d’athérosclérose (1990-1997) ; membre de l’organe scientifique supérieur du Conseil oléicole international (1995-2000) ; coprésident (avec Jean-Charles Fruchart) du XIth International Symposium on Atherosclerosis (Paris 1997). 
 Il a été membre nombreuses sociétés savantes, notamment : International Atherosclerosis Society, European Atherosclerosis Society ; American Heart Association (Council on Atherosclerosis) ; Association américaine pour l'avancement des sciences ; International Society and Federation of Cardiology ; Société de Nutrition et Diététique de langue française ; Société française de médecine interne ; Association de langue française pour l’étude du diabète et des maladies métaboliques.
 Il a épousé Jacqueline Cuney en 1962, avec qui il a eu deux enfants : Frédéric et Etienne. Devenu veuf, il a, en 1978, épousé en secondes noces Evelyne Berck, avec qui il a eu deux filles : Sophie et Béatrice.
 </t>
@@ -546,9 +560,11 @@
           <t>Travaux de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de l’Unité 32 de l’INSERM, en liaison avec son activité clinique, Bernard Jacotot a développé les principaux thèmes de recherche suivants : athérosclérose expérimentale[8],[9],[10],[11], hyperlipidémies[12],[13],[14], facteurs nutritionnels des maladies cardio-vasculaires[15],[16], valeur biologique des huiles alimentaires et effets des graisses alimentaires sur le métabolisme des lipides chez l’humain[17],[18],[19],[20]. Il a en particulier mis en évidence les effets favorables des acides gras de certains huiles sur le métabolisme des lipoprotéines sanguines[21],[22],[23],[24],[25]. Il a conduit des études originales sur des groupes de sujets vivant dans des congrégations religieuses[26],[27],[28],[29],[30],[31],[32]. Par ailleurs, dans le cadre de recherches cliniques chez les patients présentant des hypercholestérolémies génétiques, il a contribué à préciser les mécanismes d’action de médicaments maintenant largement utilisés dans la prévention des maladies cardio-vasculaires ischémiques[33],[34],[35],[36],[37]. Ces travaux de recherche ont fait l'objet de 170 articles dans des revues à comité de lecture, référencés dans la base de données bibliographiques MEDLINE.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de l’Unité 32 de l’INSERM, en liaison avec son activité clinique, Bernard Jacotot a développé les principaux thèmes de recherche suivants : athérosclérose expérimentale hyperlipidémies facteurs nutritionnels des maladies cardio-vasculaires valeur biologique des huiles alimentaires et effets des graisses alimentaires sur le métabolisme des lipides chez l’humain. Il a en particulier mis en évidence les effets favorables des acides gras de certains huiles sur le métabolisme des lipoprotéines sanguines. Il a conduit des études originales sur des groupes de sujets vivant dans des congrégations religieuses. Par ailleurs, dans le cadre de recherches cliniques chez les patients présentant des hypercholestérolémies génétiques, il a contribué à préciser les mécanismes d’action de médicaments maintenant largement utilisés dans la prévention des maladies cardio-vasculaires ischémiques. Ces travaux de recherche ont fait l'objet de 170 articles dans des revues à comité de lecture, référencés dans la base de données bibliographiques MEDLINE.
 </t>
         </is>
       </c>
